--- a/Literature/literature.xlsx
+++ b/Literature/literature.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="nospace" sheetId="1" r:id="rId1"/>
     <sheet name="plus" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="364">
   <si>
     <t>मञ्जूषेति</t>
   </si>
@@ -1117,6 +1117,9 @@
   </si>
   <si>
     <t>UOH.FIL</t>
+  </si>
+  <si>
+    <t>UoH</t>
   </si>
 </sst>
 </file>
@@ -1431,15 +1434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:X157"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+      <selection activeCell="U145" sqref="U145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>354</v>
       </c>
@@ -1467,8 +1470,32 @@
       <c r="I1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" t="s">
+        <v>363</v>
+      </c>
+      <c r="N1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P1" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1487,8 +1514,26 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1501,8 +1546,17 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1524,8 +1578,26 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1538,8 +1610,17 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1564,8 +1645,29 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1578,8 +1680,23 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1592,8 +1709,17 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1615,8 +1741,26 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1638,8 +1782,26 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1652,8 +1814,17 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1669,8 +1840,20 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1683,8 +1866,26 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1706,8 +1907,26 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1720,8 +1939,26 @@
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1743,8 +1980,26 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1766,8 +2021,26 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1789,8 +2062,26 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1812,8 +2103,26 @@
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1826,8 +2135,20 @@
       <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1840,8 +2161,23 @@
       <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1857,8 +2193,20 @@
       <c r="H22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1871,8 +2219,17 @@
       <c r="D23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1888,8 +2245,20 @@
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1911,8 +2280,26 @@
       <c r="H25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1934,8 +2321,26 @@
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1948,8 +2353,23 @@
       <c r="D27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1965,8 +2385,20 @@
       <c r="H28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1988,8 +2420,26 @@
       <c r="H29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2002,8 +2452,26 @@
       <c r="D30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2016,8 +2484,23 @@
       <c r="D31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2039,8 +2522,26 @@
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2062,8 +2563,26 @@
       <c r="H33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2082,8 +2601,23 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2096,8 +2630,17 @@
       <c r="D35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2119,8 +2662,26 @@
       <c r="H36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2133,8 +2694,17 @@
       <c r="D37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2156,8 +2726,26 @@
       <c r="H38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2170,8 +2758,26 @@
       <c r="D39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2193,8 +2799,26 @@
       <c r="H40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2210,8 +2834,20 @@
       <c r="H41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2233,8 +2869,26 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2256,8 +2910,26 @@
       <c r="H43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2279,8 +2951,26 @@
       <c r="H44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2302,8 +2992,26 @@
       <c r="H45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2316,8 +3024,17 @@
       <c r="D46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2336,8 +3053,23 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2359,8 +3091,26 @@
       <c r="H48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2382,8 +3132,26 @@
       <c r="H49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2408,8 +3176,29 @@
       <c r="H50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2431,8 +3220,26 @@
       <c r="H51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2448,8 +3255,20 @@
       <c r="H52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2465,8 +3284,20 @@
       <c r="H53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2488,8 +3319,26 @@
       <c r="H54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2511,8 +3360,26 @@
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2525,8 +3392,17 @@
       <c r="D56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2551,8 +3427,29 @@
       <c r="H57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2565,8 +3462,17 @@
       <c r="D58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2579,8 +3485,20 @@
       <c r="D59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2593,8 +3511,17 @@
       <c r="D60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2607,8 +3534,17 @@
       <c r="D61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2630,8 +3566,26 @@
       <c r="H62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2644,8 +3598,17 @@
       <c r="D63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2658,8 +3621,17 @@
       <c r="D64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2672,8 +3644,26 @@
       <c r="D65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2695,8 +3685,26 @@
       <c r="H66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2709,8 +3717,17 @@
       <c r="D67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2723,8 +3740,17 @@
       <c r="D68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2746,8 +3772,26 @@
       <c r="H69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2760,8 +3804,17 @@
       <c r="D70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2774,8 +3827,17 @@
       <c r="D71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2800,8 +3862,29 @@
       <c r="H72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2826,8 +3909,29 @@
       <c r="H73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2849,8 +3953,26 @@
       <c r="H74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2863,8 +3985,17 @@
       <c r="D75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2877,8 +4008,17 @@
       <c r="D76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2891,8 +4031,26 @@
       <c r="D77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2911,8 +4069,23 @@
       <c r="H78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2925,8 +4098,17 @@
       <c r="D79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2939,8 +4121,20 @@
       <c r="D80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2953,8 +4147,17 @@
       <c r="D81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2967,8 +4170,17 @@
       <c r="D82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2981,8 +4193,17 @@
       <c r="D83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2995,8 +4216,17 @@
       <c r="D84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3009,8 +4239,17 @@
       <c r="D85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3023,8 +4262,17 @@
       <c r="D86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3037,8 +4285,17 @@
       <c r="D87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3051,8 +4308,26 @@
       <c r="D88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3074,8 +4349,26 @@
       <c r="H89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3088,8 +4381,17 @@
       <c r="D90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3102,8 +4404,17 @@
       <c r="D91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3116,8 +4427,17 @@
       <c r="D92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3133,8 +4453,20 @@
       <c r="H93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3156,8 +4488,26 @@
       <c r="H94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3179,8 +4529,26 @@
       <c r="H95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3193,8 +4561,26 @@
       <c r="D96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3210,8 +4596,20 @@
       <c r="H97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3233,8 +4631,26 @@
       <c r="H98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3253,8 +4669,23 @@
       <c r="H99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3270,8 +4701,26 @@
       <c r="H100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3290,8 +4739,23 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3313,8 +4777,26 @@
       <c r="H102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3336,8 +4818,26 @@
       <c r="H103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3362,8 +4862,29 @@
       <c r="H104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3388,8 +4909,29 @@
       <c r="H105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3411,8 +4953,26 @@
       <c r="H106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3434,8 +4994,26 @@
       <c r="H107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3457,8 +5035,26 @@
       <c r="H108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3477,8 +5073,23 @@
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3491,8 +5102,17 @@
       <c r="D110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3517,8 +5137,29 @@
       <c r="H111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3531,8 +5172,17 @@
       <c r="D112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3545,8 +5195,17 @@
       <c r="D113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3571,8 +5230,29 @@
       <c r="H114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3591,8 +5271,23 @@
       <c r="G115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3608,8 +5303,20 @@
       <c r="H116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3628,8 +5335,26 @@
       <c r="G117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3651,8 +5376,26 @@
       <c r="H118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3668,8 +5411,20 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3682,8 +5437,17 @@
       <c r="D120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3699,8 +5463,23 @@
       <c r="H121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3713,8 +5492,17 @@
       <c r="D122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3727,8 +5515,23 @@
       <c r="D123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3747,8 +5550,23 @@
       <c r="G124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3773,8 +5591,29 @@
       <c r="H125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3787,8 +5626,23 @@
       <c r="D126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3801,8 +5655,23 @@
       <c r="D127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>1</v>
+      </c>
+      <c r="X127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3815,8 +5684,26 @@
       <c r="D128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3832,8 +5719,20 @@
       <c r="H129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3858,8 +5757,29 @@
       <c r="H130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3881,8 +5801,26 @@
       <c r="H131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3898,8 +5836,20 @@
       <c r="H132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3915,8 +5865,20 @@
       <c r="H133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3932,8 +5894,20 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3946,8 +5920,17 @@
       <c r="D135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3969,8 +5952,26 @@
       <c r="H136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3983,8 +5984,23 @@
       <c r="D137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3997,8 +6013,17 @@
       <c r="D138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4011,8 +6036,26 @@
       <c r="D139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4025,8 +6068,17 @@
       <c r="D140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4048,8 +6100,26 @@
       <c r="H141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141">
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4071,8 +6141,26 @@
       <c r="H142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4094,8 +6182,26 @@
       <c r="H143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4108,8 +6214,20 @@
       <c r="D144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4131,8 +6249,26 @@
       <c r="H145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4154,8 +6290,26 @@
       <c r="H146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4177,8 +6331,26 @@
       <c r="H147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4200,8 +6372,26 @@
       <c r="H148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4223,8 +6413,26 @@
       <c r="H149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+      <c r="P149">
+        <v>1</v>
+      </c>
+      <c r="Q149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4243,8 +6451,23 @@
       <c r="G150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4257,8 +6480,17 @@
       <c r="D151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4280,8 +6512,26 @@
       <c r="H152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4303,8 +6553,26 @@
       <c r="H153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4320,8 +6588,26 @@
       <c r="H154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4343,8 +6629,26 @@
       <c r="H155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4366,8 +6670,26 @@
       <c r="H156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E157">
         <f>SUM(E3:E156)</f>
         <v>15</v>
@@ -4386,6 +6708,38 @@
       </c>
       <c r="I157">
         <f>SUM(I3:I156)</f>
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f>SUM(J3:J156)</f>
+        <v>127</v>
+      </c>
+      <c r="K157">
+        <f>SUM(K3:K156)</f>
+        <v>19</v>
+      </c>
+      <c r="L157">
+        <f>SUM(L3:L156)</f>
+        <v>105</v>
+      </c>
+      <c r="N157">
+        <f>SUM(N3:N156)</f>
+        <v>15</v>
+      </c>
+      <c r="O157">
+        <f>SUM(O3:O156)</f>
+        <v>94</v>
+      </c>
+      <c r="P157">
+        <f>SUM(P3:P156)</f>
+        <v>89</v>
+      </c>
+      <c r="Q157">
+        <f>SUM(Q3:Q156)</f>
+        <v>97</v>
+      </c>
+      <c r="R157">
+        <f>SUM(R3:R156)</f>
         <v>0</v>
       </c>
     </row>
@@ -4398,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView showRuler="0" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
